--- a/数据整理/stocks/A股/深证主板/002294-信立泰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002294-信立泰.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005970</t>
+          <t>519020</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰消费优选股票</t>
+          <t>国泰金泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3285</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519020</t>
+          <t>005970</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合A</t>
+          <t>国泰消费优选股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.24</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>6.65</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004703</t>
+          <t>002851</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方兴盛先锋灵活配置混合</t>
+          <t>南方品质优选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.27</t>
+          <t>19.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9.41</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8322</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -660,15 +720,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.33</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>9.56</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7103</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006587</t>
+          <t>004703</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方优享分红灵活配置混合C</t>
+          <t>南方兴盛先锋灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9.56</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2014</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -706,26 +786,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006267</t>
+          <t>519020</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>诺德量化核心灵活配置混合A</t>
+          <t>国泰金泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.80</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1966</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -734,26 +824,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006268</t>
+          <t>000059</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>诺德量化核心灵活配置混合C</t>
+          <t>国联安中证医药100指数A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.80</t>
+          <t>13.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -762,26 +862,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000059</t>
+          <t>001550</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国联安中证医药100指数A</t>
+          <t>天弘中证医药100指数型发起式 A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>10.64</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>1.30</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>8</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -790,26 +900,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006569</t>
+          <t>006267</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国联安中证医药100指数C</t>
+          <t>诺德量化核心灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -828,15 +948,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>93.31</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>6.12</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001550</t>
+          <t>009059</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天弘中证医药100指数型发起式 A</t>
+          <t>南方沪深300指数增强A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -884,15 +1024,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>93.83</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1.30</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>3</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>519020</t>
+          <t>006268</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合A</t>
+          <t>诺德量化核心灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.32</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>519022</t>
+          <t>009060</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合C</t>
+          <t>南方沪深300指数增强C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.32</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009059</t>
+          <t>006587</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>南方沪深300指数增强A</t>
+          <t>南方优享分红灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009060</t>
+          <t>519022</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>南方沪深300指数增强C</t>
+          <t>国泰金泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002851</t>
+          <t>006569</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>南方品质优选灵活配置混合</t>
+          <t>国联安中证医药100指数C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>88.52</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9.42</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002294-信立泰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002294-信立泰.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1239,4 +1240,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6751</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5935</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4807</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2440</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2336</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009059</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009060</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002294-信立泰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002294-信立泰.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1790,4 +1791,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5640</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2120</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002294-信立泰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002294-信立泰.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2113,4 +2114,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002294-信立泰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002294-信立泰.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2122,7 +2123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2133,17 +2134,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2153,14 +2174,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2164</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.11</v>
       </c>
     </row>
     <row r="3">
@@ -2169,14 +2212,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.73</v>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2072</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2185,14 +2250,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.68</v>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2201,13 +2288,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>410010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华富中小板指数增强</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.47</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002294-信立泰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002294-信立泰.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2445,7 +2446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2456,17 +2457,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2476,14 +2497,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6</v>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2492,14 +2535,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.11</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4">
@@ -2508,14 +2641,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>4.73</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="5">
@@ -2524,14 +2657,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>3.68</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="6">
@@ -2540,13 +2673,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.47</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002294-信立泰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002294-信立泰.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2578,7 +2579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2589,17 +2590,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2609,14 +2630,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1</v>
+          <t>970043</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2625,14 +2668,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6</v>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2641,14 +2706,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>970045</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.11</v>
       </c>
     </row>
     <row r="5">
@@ -2657,14 +2744,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.73</v>
+          <t>970044</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2673,14 +2782,152 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>013881</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>3.68</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="7">
@@ -2689,13 +2936,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.47</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002294-信立泰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002294-信立泰.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,167 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519020</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰金泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3285</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005970</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰消费优选股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1320</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519022</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰金泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -627,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -678,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002851</t>
+          <t>970043</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方品质优选灵活配置混合</t>
+          <t>东吴裕盈一年持有期灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.45</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.52</t>
+          <t>78.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8322</t>
+          <t>0.0639</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -716,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005123</t>
+          <t>004945</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方优享分红灵活配置混合A</t>
+          <t>长信中证500指数增强</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>93.46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.56</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7103</t>
+          <t>0.0483</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -754,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004703</t>
+          <t>970045</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方兴盛先锋灵活配置混合</t>
+          <t>东吴裕盈一年持有期灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.27</t>
+          <t>78.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2014</t>
+          <t>0.0175</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -792,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519020</t>
+          <t>970044</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合A</t>
+          <t>东吴裕盈一年持有期灵活配置混合B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>78.58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1966</t>
+          <t>0.0098</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -830,415 +808,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000059</t>
+          <t>013881</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国联安中证医药100指数A</t>
+          <t>长信中证500指数增强C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13.01</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>93.46</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1691</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001550</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>天弘中证医药100指数型发起式 A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>10.64</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1383</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006267</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>诺德量化核心灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.80</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1289</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005970</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国泰消费优选股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.31</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0826</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009059</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>南方沪深300指数增强A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0792</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001551</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>天弘中证医药100指数型发起式 C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0780</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006268</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>诺德量化核心灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.80</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0343</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009060</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>南方沪深300指数增强C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0149</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006587</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>南方优享分红灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.33</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>9.56</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0086</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>519022</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国泰金泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.17</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>6.32</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006569</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国联安中证医药100指数C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.75</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1253,7 +851,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1274,7 +872,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1304,36 +902,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010846</t>
+          <t>006440</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方卓越优选3个月持有期混合A</t>
+          <t>中信建投中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>45.52</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.35</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.6751</t>
+          <t>0.0647</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1342,454 +940,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002851</t>
+          <t>006441</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方品质优选灵活配置混合</t>
+          <t>中信建投中证500指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.88</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.37</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.44</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5935</t>
+          <t>0.0348</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005123</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方优享分红灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.10</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.07</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4807</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
         <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010847</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>南方卓越优选3个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.63</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>76.35</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2440</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005347</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>诺德量化优选6个月持有期混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2336</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006267</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>诺德量化核心灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.84</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1365</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004703</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>南方兴盛先锋灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>84.73</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.92</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1329</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>519020</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国泰金泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.57</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1179</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009059</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>南方沪深300指数增强A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0532</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006268</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>诺德量化核心灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.84</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0343</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006587</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>南方优享分红灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.07</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0115</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009060</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>南方沪深300指数增强C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0097</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>519022</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国泰金泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.57</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1824,7 +1004,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1854,36 +1034,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002851</t>
+          <t>006729</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方品质优选灵活配置混合</t>
+          <t>万家中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.71</t>
+          <t>12.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.17</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5640</t>
+          <t>0.2164</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1902,26 +1082,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.35</t>
+          <t>93.62</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2120</t>
+          <t>0.2072</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1940,26 +1120,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.05</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1214</t>
+          <t>0.1128</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1968,36 +1148,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519020</t>
+          <t>006268</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合A</t>
+          <t>诺德量化核心灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1191</t>
+          <t>0.0309</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2006,36 +1186,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005970</t>
+          <t>011500</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰消费优选股票</t>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>94.18</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0528</t>
+          <t>0.0214</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2044,36 +1224,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006268</t>
+          <t>006730</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>诺德量化核心灵活配置混合C</t>
+          <t>万家中证500指数增强C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.05</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0326</t>
+          <t>0.0109</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2082,12 +1262,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519022</t>
+          <t>410010</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合C</t>
+          <t>华富中小板指数增强</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2097,17 +1277,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0041</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -2146,7 +1326,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2176,36 +1356,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006729</t>
+          <t>002851</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家中证500指数增强A</t>
+          <t>南方品质优选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.16</t>
+          <t>15.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.40</t>
+          <t>81.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2164</t>
+          <t>0.5640</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2224,26 +1404,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>88.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2072</t>
+          <t>0.2120</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2262,26 +1442,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>83.05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1128</t>
+          <t>0.1214</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2290,36 +1470,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006268</t>
+          <t>519020</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>诺德量化核心灵活配置混合C</t>
+          <t>国泰金泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>92.45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0309</t>
+          <t>0.1191</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2328,36 +1508,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011500</t>
+          <t>005970</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>九泰量化新兴产业混合型证券投资基金</t>
+          <t>国泰消费优选股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>92.58</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0214</t>
+          <t>0.0528</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2366,36 +1546,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006730</t>
+          <t>006268</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>万家中证500指数增强C</t>
+          <t>诺德量化核心灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.40</t>
+          <t>83.05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0109</t>
+          <t>0.0326</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -2404,12 +1584,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>410010</t>
+          <t>519022</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华富中小板指数增强</t>
+          <t>国泰金泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2419,17 +1599,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>92.45</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0022</t>
+          <t>0.0041</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -2447,7 +1627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2468,7 +1648,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2498,36 +1678,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006440</t>
+          <t>010846</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强A</t>
+          <t>南方卓越优选3个月持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>45.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.71</t>
+          <t>76.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0647</t>
+          <t>1.6751</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2536,36 +1716,454 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006441</t>
+          <t>002851</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强C</t>
+          <t>南方品质优选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>18.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5935</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4807</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2440</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2336</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009059</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0348</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009060</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2579,7 +2177,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2600,7 +2198,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2630,36 +2228,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>970043</t>
+          <t>002851</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东吴裕盈一年持有期灵活配置混合A</t>
+          <t>南方品质优选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>19.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.58</t>
+          <t>88.52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>9.42</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0639</t>
+          <t>1.8322</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2668,36 +2266,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004945</t>
+          <t>005123</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长信中证500指数增强</t>
+          <t>南方优享分红灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>93.33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>9.56</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0483</t>
+          <t>0.7103</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2706,36 +2304,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>970045</t>
+          <t>004703</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东吴裕盈一年持有期灵活配置混合C</t>
+          <t>南方兴盛先锋灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>78.58</t>
+          <t>87.27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0175</t>
+          <t>0.2014</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2744,36 +2342,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>970044</t>
+          <t>519020</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东吴裕盈一年持有期灵活配置混合B</t>
+          <t>国泰金泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>78.58</t>
+          <t>92.17</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0098</t>
+          <t>0.1966</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2782,35 +2380,415 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>013881</t>
+          <t>000059</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长信中证500指数增强C</t>
+          <t>国联安中证医药100指数A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>13.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>93.75</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.1691</t>
         </is>
       </c>
       <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009059</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009060</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2825,144 +2803,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.14</v>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3285</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>13</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.73</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.68</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.47</v>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002294-信立泰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002294-信立泰.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.11</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>4.73</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>3.68</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -600,6 +617,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014470</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -845,7 +1184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -970,328 +1309,6 @@
       </c>
       <c r="H3" t="n">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006729</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>万家中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.16</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2164</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005347</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>诺德量化优选6个月持有期混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.62</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2072</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006267</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>诺德量化核心灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1128</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006268</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>诺德量化核心灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0309</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011500</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>九泰量化新兴产业混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0214</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006730</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>万家中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>410010</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华富中小板指数增强</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1326,7 +1343,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1356,36 +1373,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002851</t>
+          <t>006729</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方品质优选灵活配置混合</t>
+          <t>万家中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.71</t>
+          <t>12.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.17</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5640</t>
+          <t>0.2164</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1404,26 +1421,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.35</t>
+          <t>93.62</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2120</t>
+          <t>0.2072</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1442,26 +1459,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.05</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1214</t>
+          <t>0.1128</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1470,36 +1487,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519020</t>
+          <t>006268</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合A</t>
+          <t>诺德量化核心灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1191</t>
+          <t>0.0309</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1508,36 +1525,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005970</t>
+          <t>011500</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰消费优选股票</t>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>94.18</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0528</t>
+          <t>0.0214</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1546,36 +1563,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006268</t>
+          <t>006730</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>诺德量化核心灵活配置混合C</t>
+          <t>万家中证500指数增强C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.05</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0326</t>
+          <t>0.0109</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1584,12 +1601,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519022</t>
+          <t>410010</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合C</t>
+          <t>华富中小板指数增强</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1599,17 +1616,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0041</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1622,6 +1639,328 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5640</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2120</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2171,7 +2510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2797,7 +3136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002294-信立泰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002294-信立泰.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1.11</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>4.73</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>3.68</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -616,7 +633,1031 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3285</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1824</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4407</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3567</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2408</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2305</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2155</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1967</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015052</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014206</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城中证医药卫生指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014205</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长城中证医药卫生指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015053</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014285</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014286</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -938,7 +1979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1184,7 +2225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1309,328 +2350,6 @@
       </c>
       <c r="H3" t="n">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006729</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>万家中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.16</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2164</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005347</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>诺德量化优选6个月持有期混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.62</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2072</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006267</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>诺德量化核心灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1128</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006268</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>诺德量化核心灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0309</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011500</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>九泰量化新兴产业混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0214</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006730</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>万家中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>410010</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华富中小板指数增强</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1665,7 +2384,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1695,36 +2414,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002851</t>
+          <t>006729</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方品质优选灵活配置混合</t>
+          <t>万家中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.71</t>
+          <t>12.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.17</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5640</t>
+          <t>0.2164</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1743,26 +2462,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.35</t>
+          <t>93.62</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2120</t>
+          <t>0.2072</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1781,26 +2500,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.05</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1214</t>
+          <t>0.1128</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1809,36 +2528,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519020</t>
+          <t>006268</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合A</t>
+          <t>诺德量化核心灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1191</t>
+          <t>0.0309</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1847,36 +2566,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005970</t>
+          <t>011500</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰消费优选股票</t>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>94.18</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0528</t>
+          <t>0.0214</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1885,36 +2604,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006268</t>
+          <t>006730</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>诺德量化核心灵活配置混合C</t>
+          <t>万家中证500指数增强C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.05</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0326</t>
+          <t>0.0109</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1923,12 +2642,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519022</t>
+          <t>410010</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合C</t>
+          <t>华富中小板指数增强</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1938,17 +2657,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0041</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1961,6 +2680,328 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5640</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2120</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2510,7 +3551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3134,174 +4175,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519020</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰金泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3285</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005970</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰消费优选股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1320</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519022</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰金泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>